--- a/bb_openpyxl/tests/out.xlsx
+++ b/bb_openpyxl/tests/out.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="原始数据" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="测试另一个sheet">'汇总!'!#REF!</definedName>
-    <definedName name="计算机成绩">原始数据!$E$3:$E$13</definedName>
+    <definedName name="计算机成绩">原始数据!$G$3:$G$12</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -83,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -101,40 +101,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thick">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thick">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thick">
         <color indexed="12"/>
       </right>
       <top style="thick">
@@ -369,12 +339,82 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="12"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
       <top style="thin">
         <color indexed="12"/>
       </top>
@@ -386,17 +426,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
       <top style="thin">
         <color indexed="12"/>
       </top>
@@ -413,6 +442,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thick">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thick">
@@ -436,107 +480,384 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="40"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0_ "/>
+      <border>
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0_ "/>
+      <border>
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0_ "/>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0_ "/>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0_ "/>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <border>
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thick">
+          <color indexed="12"/>
+        </left>
+        <right style="thick">
+          <color indexed="12"/>
+        </right>
+        <top style="thick">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="1"/>
@@ -616,6 +937,28 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="A2:M12" headerRowCount="1" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="A2:K12"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="学号"/>
+    <tableColumn id="2" name="None"/>
+    <tableColumn id="3" name="None"/>
+    <tableColumn id="4" name="姓名"/>
+    <tableColumn id="5" name="出生日期"/>
+    <tableColumn id="6" name="专业"/>
+    <tableColumn id="7" name="计算机"/>
+    <tableColumn id="8" name="大学英语"/>
+    <tableColumn id="9" name="高等数学"/>
+    <tableColumn id="10" name="总分"/>
+    <tableColumn id="11" name="平均分"/>
+    <tableColumn id="12" name="排名"/>
+    <tableColumn id="13" name="总评"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -902,15 +1245,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -918,678 +1261,698 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="7"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="11.08984375" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.5" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="inlineStr">
+      <c r="A1" s="18" t="inlineStr">
         <is>
           <t>学生成绩表</t>
         </is>
       </c>
-      <c r="B1" s="31" t="n"/>
-      <c r="C1" s="31" t="n"/>
-      <c r="D1" s="31" t="n"/>
-      <c r="E1" s="31" t="n"/>
-      <c r="F1" s="31" t="n"/>
-      <c r="G1" s="31" t="n"/>
-      <c r="H1" s="31" t="n"/>
-      <c r="I1" s="31" t="n"/>
-      <c r="J1" s="31" t="n"/>
-      <c r="K1" s="31" t="n"/>
+      <c r="B1" s="40" t="n"/>
+      <c r="C1" s="40" t="n"/>
+      <c r="D1" s="40" t="n"/>
+      <c r="E1" s="40" t="n"/>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="40" t="n"/>
+      <c r="H1" s="40" t="n"/>
+      <c r="I1" s="40" t="n"/>
+      <c r="J1" s="40" t="n"/>
+      <c r="K1" s="40" t="n"/>
+      <c r="L1" s="40" t="n"/>
+      <c r="M1" s="40" t="n"/>
     </row>
     <row r="2" ht="14.5" customHeight="1" thickTop="1">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="30" t="inlineStr">
         <is>
           <t>学号</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="D2" s="31" t="inlineStr">
         <is>
           <t>姓名</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="E2" s="31" t="inlineStr">
         <is>
           <t>出生日期</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="F2" s="31" t="inlineStr">
         <is>
           <t>专业</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="G2" s="31" t="inlineStr">
         <is>
           <t>计算机</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="H2" s="31" t="inlineStr">
         <is>
           <t>大学英语</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="I2" s="31" t="inlineStr">
         <is>
           <t>高等数学</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="J2" s="31" t="inlineStr">
         <is>
           <t>总分</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="K2" s="31" t="inlineStr">
         <is>
           <t>平均分</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="L2" s="31" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="32" t="inlineStr">
         <is>
           <t>总评</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="28" t="inlineStr">
         <is>
           <t>0126001</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>李晓慧</t>
         </is>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="E3" s="3" t="n">
         <v>34466</v>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>生态环境</t>
         </is>
       </c>
-      <c r="E3" s="32" t="n">
+      <c r="G3" s="41" t="n">
         <v>90</v>
       </c>
-      <c r="F3" s="32" t="n">
+      <c r="H3" s="41" t="n">
         <v>85</v>
       </c>
-      <c r="G3" s="32" t="n">
+      <c r="I3" s="41" t="n">
         <v>86</v>
       </c>
-      <c r="H3" s="33">
-        <f>SUM(E3:G3)</f>
-        <v/>
-      </c>
-      <c r="I3" s="33">
-        <f>AVERAGE(E3:G3)</f>
-        <v/>
-      </c>
-      <c r="J3" s="9">
-        <f>RANK(I3,$I$3:$I$13,0)</f>
-        <v/>
-      </c>
-      <c r="K3" s="10">
-        <f>IF(I3&gt;=60,"及格","不及格")</f>
+      <c r="J3" s="42">
+        <f>SUM(G3:I3)</f>
+        <v/>
+      </c>
+      <c r="K3" s="42">
+        <f>AVERAGE(G3:I3)</f>
+        <v/>
+      </c>
+      <c r="L3" s="6">
+        <f>RANK(K3,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M3" s="29">
+        <f>IF(K3&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1"/>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="28" t="inlineStr">
         <is>
           <t>0126002</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>赵东升</t>
         </is>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="E4" s="3" t="n">
         <v>34011</v>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>生态环境</t>
         </is>
       </c>
-      <c r="E5" s="34" t="n">
+      <c r="G4" s="43" t="n">
         <v>91</v>
       </c>
-      <c r="F5" s="32" t="n">
+      <c r="H4" s="41" t="n">
         <v>82</v>
       </c>
-      <c r="G5" s="32" t="n">
+      <c r="I4" s="41" t="n">
         <v>83</v>
       </c>
-      <c r="H5" s="33">
-        <f>SUM(E5:G5)</f>
-        <v/>
-      </c>
-      <c r="I5" s="33">
-        <f>AVERAGE(E5:G5)</f>
-        <v/>
-      </c>
-      <c r="J5" s="9">
-        <f>RANK(I5,$I$3:$I$13,0)</f>
-        <v/>
-      </c>
-      <c r="K5" s="10">
-        <f>IF(I5&gt;=60,"及格","不及格")</f>
+      <c r="J4" s="42">
+        <f>SUM(G4:I4)</f>
+        <v/>
+      </c>
+      <c r="K4" s="42">
+        <f>AVERAGE(G4:I4)</f>
+        <v/>
+      </c>
+      <c r="L4" s="6">
+        <f>RANK(K4,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M4" s="29">
+        <f>IF(K4&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="28" t="inlineStr">
         <is>
           <t>0126003</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>王老伍</t>
         </is>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="E5" s="3" t="n">
         <v>34127</v>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>生态环境</t>
         </is>
       </c>
-      <c r="E6" s="32" t="n">
+      <c r="G5" s="41" t="n">
         <v>74</v>
       </c>
-      <c r="F6" s="32" t="n">
+      <c r="H5" s="41" t="n">
         <v>86</v>
       </c>
-      <c r="G6" s="32" t="n">
+      <c r="I5" s="41" t="n">
         <v>77</v>
       </c>
-      <c r="H6" s="33">
-        <f>SUM(E6:G6)</f>
-        <v/>
-      </c>
-      <c r="I6" s="33">
-        <f>AVERAGE(E6:G6)</f>
-        <v/>
-      </c>
-      <c r="J6" s="9">
-        <f>RANK(I6,$I$3:$I$13,0)</f>
-        <v/>
-      </c>
-      <c r="K6" s="10">
-        <f>IF(I6&gt;=60,"及格","不及格")</f>
+      <c r="J5" s="42">
+        <f>SUM(G5:I5)</f>
+        <v/>
+      </c>
+      <c r="K5" s="42">
+        <f>AVERAGE(G5:I5)</f>
+        <v/>
+      </c>
+      <c r="L5" s="6">
+        <f>RANK(K5,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M5" s="29">
+        <f>IF(K5&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="48" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
+    <row r="6" ht="48" customHeight="1">
+      <c r="A6" s="28" t="inlineStr">
         <is>
           <t>0126004</t>
         </is>
       </c>
-      <c r="B7" s="16" t="inlineStr">
+      <c r="D6" s="12" t="inlineStr">
         <is>
           <t>马胜军
 (Porter)</t>
         </is>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="E6" s="3" t="n">
         <v>34572</v>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>工程造价</t>
         </is>
       </c>
-      <c r="E7" s="32" t="n">
+      <c r="G6" s="41" t="n">
         <v>80</v>
       </c>
-      <c r="F7" s="32" t="n">
+      <c r="H6" s="41" t="n">
         <v>52</v>
       </c>
-      <c r="G7" s="34" t="n">
+      <c r="I6" s="43" t="n">
         <v>88</v>
       </c>
-      <c r="H7" s="33">
-        <f>SUM(E7:G7)</f>
-        <v/>
-      </c>
-      <c r="I7" s="33">
-        <f>AVERAGE(E7:G7)</f>
-        <v/>
-      </c>
-      <c r="J7" s="9">
-        <f>RANK(I7,$I$3:$I$13,0)</f>
-        <v/>
-      </c>
-      <c r="K7" s="10">
-        <f>IF(I7&gt;=60,"及格","不及格")</f>
+      <c r="J6" s="42">
+        <f>SUM(G6:I6)</f>
+        <v/>
+      </c>
+      <c r="K6" s="42">
+        <f>AVERAGE(G6:I6)</f>
+        <v/>
+      </c>
+      <c r="L6" s="6">
+        <f>RANK(K6,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M6" s="29">
+        <f>IF(K6&gt;=60,"及格","不及格")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="28" t="inlineStr">
+        <is>
+          <t>0126005</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>刘洁洋</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>34305</v>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>工程造价</t>
+        </is>
+      </c>
+      <c r="G7" s="41" t="n">
+        <v>78</v>
+      </c>
+      <c r="H7" s="41" t="n">
+        <v>68</v>
+      </c>
+      <c r="I7" s="41" t="n">
+        <v>86</v>
+      </c>
+      <c r="J7" s="42">
+        <f>SUM(G7:I7)</f>
+        <v/>
+      </c>
+      <c r="K7" s="42">
+        <f>AVERAGE(G7:I7)</f>
+        <v/>
+      </c>
+      <c r="L7" s="6">
+        <f>RANK(K7,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M7" s="29">
+        <f>IF(K7&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>0126005</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>刘洁洋</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>34305</v>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="A8" s="28" t="inlineStr">
+        <is>
+          <t>0126006</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>唐小东</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>34289</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>工程造价</t>
         </is>
       </c>
-      <c r="E8" s="32" t="n">
-        <v>78</v>
-      </c>
-      <c r="F8" s="32" t="n">
-        <v>68</v>
-      </c>
-      <c r="G8" s="32" t="n">
-        <v>86</v>
-      </c>
-      <c r="H8" s="33">
-        <f>SUM(E8:G8)</f>
-        <v/>
-      </c>
-      <c r="I8" s="33">
-        <f>AVERAGE(E8:G8)</f>
-        <v/>
-      </c>
-      <c r="J8" s="9">
-        <f>RANK(I8,$I$3:$I$13,0)</f>
-        <v/>
-      </c>
-      <c r="K8" s="10">
-        <f>IF(I8&gt;=60,"及格","不及格")</f>
+      <c r="G8" s="41" t="n">
+        <v>67</v>
+      </c>
+      <c r="H8" s="41" t="n">
+        <v>65</v>
+      </c>
+      <c r="I8" s="41" t="n">
+        <v>44</v>
+      </c>
+      <c r="J8" s="42">
+        <f>SUM(G8:I8)</f>
+        <v/>
+      </c>
+      <c r="K8" s="42">
+        <f>AVERAGE(G8:I8)</f>
+        <v/>
+      </c>
+      <c r="L8" s="6">
+        <f>RANK(K8,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M8" s="29">
+        <f>IF(K8&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>0126006</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>唐小东</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>34289</v>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="A9" s="28" t="inlineStr">
+        <is>
+          <t>0126007</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>毛容容</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>34347</v>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>工程造价</t>
         </is>
       </c>
-      <c r="E9" s="32" t="n">
-        <v>67</v>
-      </c>
-      <c r="F9" s="32" t="n">
-        <v>65</v>
-      </c>
-      <c r="G9" s="32" t="n">
-        <v>44</v>
-      </c>
-      <c r="H9" s="33">
-        <f>SUM(E9:G9)</f>
-        <v/>
-      </c>
-      <c r="I9" s="33">
-        <f>AVERAGE(E9:G9)</f>
-        <v/>
-      </c>
-      <c r="J9" s="9">
-        <f>RANK(I9,$I$3:$I$13,0)</f>
-        <v/>
-      </c>
-      <c r="K9" s="10">
-        <f>IF(I9&gt;=60,"及格","不及格")</f>
+      <c r="G9" s="41" t="n">
+        <v>82</v>
+      </c>
+      <c r="H9" s="41" t="n">
+        <v>83</v>
+      </c>
+      <c r="I9" s="41" t="n">
+        <v>81</v>
+      </c>
+      <c r="J9" s="42">
+        <f>SUM(G9:I9)</f>
+        <v/>
+      </c>
+      <c r="K9" s="42">
+        <f>AVERAGE(G9:I9)</f>
+        <v/>
+      </c>
+      <c r="L9" s="6">
+        <f>RANK(K9,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M9" s="29">
+        <f>IF(K9&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>0126007</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>毛容容</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>34347</v>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>工程造价</t>
-        </is>
-      </c>
-      <c r="E10" s="32" t="n">
-        <v>82</v>
-      </c>
-      <c r="F10" s="32" t="n">
-        <v>83</v>
-      </c>
-      <c r="G10" s="32" t="n">
-        <v>81</v>
-      </c>
-      <c r="H10" s="33">
-        <f>SUM(E10:G10)</f>
-        <v/>
-      </c>
-      <c r="I10" s="33">
-        <f>AVERAGE(E10:G10)</f>
-        <v/>
-      </c>
-      <c r="J10" s="9">
-        <f>RANK(I10,$I$3:$I$13,0)</f>
-        <v/>
-      </c>
-      <c r="K10" s="10">
-        <f>IF(I10&gt;=60,"及格","不及格")</f>
+      <c r="A10" s="28" t="inlineStr">
+        <is>
+          <t>0126008</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>张珊珊</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>34372</v>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>电子商务</t>
+        </is>
+      </c>
+      <c r="G10" s="41" t="n">
+        <v>56</v>
+      </c>
+      <c r="H10" s="41" t="n">
+        <v>42</v>
+      </c>
+      <c r="I10" s="41" t="n">
+        <v>66</v>
+      </c>
+      <c r="J10" s="42">
+        <f>SUM(G10:I10)</f>
+        <v/>
+      </c>
+      <c r="K10" s="42">
+        <f>AVERAGE(G10:I10)</f>
+        <v/>
+      </c>
+      <c r="L10" s="6">
+        <f>RANK(K10,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M10" s="29">
+        <f>IF(K10&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>0126008</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>张珊珊</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>34372</v>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="A11" s="28" t="inlineStr">
+        <is>
+          <t>0126009</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>陈思敏</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>34460</v>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>电子商务</t>
         </is>
       </c>
-      <c r="E11" s="32" t="n">
-        <v>56</v>
-      </c>
-      <c r="F11" s="32" t="n">
-        <v>42</v>
-      </c>
-      <c r="G11" s="32" t="n">
-        <v>66</v>
-      </c>
-      <c r="H11" s="33">
-        <f>SUM(E11:G11)</f>
-        <v/>
-      </c>
-      <c r="I11" s="33">
-        <f>AVERAGE(E11:G11)</f>
-        <v/>
-      </c>
-      <c r="J11" s="9">
-        <f>RANK(I11,$I$3:$I$13,0)</f>
-        <v/>
-      </c>
-      <c r="K11" s="10">
-        <f>IF(I11&gt;=60,"及格","不及格")</f>
+      <c r="G11" s="41" t="n">
+        <v>69</v>
+      </c>
+      <c r="H11" s="41" t="n">
+        <v>87</v>
+      </c>
+      <c r="I11" s="41" t="n">
+        <v>85</v>
+      </c>
+      <c r="J11" s="42">
+        <f>SUM(G11:I11)</f>
+        <v/>
+      </c>
+      <c r="K11" s="42">
+        <f>AVERAGE(G11:I11)</f>
+        <v/>
+      </c>
+      <c r="L11" s="6">
+        <f>RANK(K11,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M11" s="29">
+        <f>IF(K11&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>0126009</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>陈思敏</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>34460</v>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="34" t="inlineStr">
+        <is>
+          <t>0126010</t>
+        </is>
+      </c>
+      <c r="D12" s="33" t="inlineStr">
+        <is>
+          <t>韦国陶</t>
+        </is>
+      </c>
+      <c r="E12" s="35" t="n">
+        <v>34250</v>
+      </c>
+      <c r="F12" s="33" t="inlineStr">
         <is>
           <t>电子商务</t>
         </is>
       </c>
-      <c r="E12" s="32" t="n">
-        <v>69</v>
-      </c>
-      <c r="F12" s="32" t="n">
-        <v>87</v>
-      </c>
-      <c r="G12" s="32" t="n">
-        <v>85</v>
-      </c>
-      <c r="H12" s="33">
-        <f>SUM(E12:G12)</f>
-        <v/>
-      </c>
-      <c r="I12" s="33">
-        <f>AVERAGE(E12:G12)</f>
-        <v/>
-      </c>
-      <c r="J12" s="9">
-        <f>RANK(I12,$I$3:$I$13,0)</f>
-        <v/>
-      </c>
-      <c r="K12" s="10">
-        <f>IF(I12&gt;=60,"及格","不及格")</f>
+      <c r="G12" s="44" t="n">
+        <v>81</v>
+      </c>
+      <c r="H12" s="45" t="n">
+        <v>95</v>
+      </c>
+      <c r="I12" s="45" t="n">
+        <v>88</v>
+      </c>
+      <c r="J12" s="46">
+        <f>SUM(G12:I12)</f>
+        <v/>
+      </c>
+      <c r="K12" s="46">
+        <f>AVERAGE(G12:I12)</f>
+        <v/>
+      </c>
+      <c r="L12" s="38">
+        <f>RANK(K12,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M12" s="39">
+        <f>IF(K12&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>0126010</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>韦国陶</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>34250</v>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>电子商务</t>
-        </is>
-      </c>
-      <c r="E13" s="32" t="n">
-        <v>81</v>
-      </c>
-      <c r="F13" s="34" t="n">
-        <v>95</v>
-      </c>
-      <c r="G13" s="34" t="n">
-        <v>88</v>
-      </c>
-      <c r="H13" s="33">
-        <f>SUM(E13:G13)</f>
-        <v/>
-      </c>
-      <c r="I13" s="33">
-        <f>AVERAGE(E13:G13)</f>
-        <v/>
-      </c>
-      <c r="J13" s="9">
-        <f>RANK(I13,$I$3:$I$13,0)</f>
-        <v/>
-      </c>
-      <c r="K13" s="10">
-        <f>IF(I13&gt;=60,"及格","不及格")</f>
-        <v/>
-      </c>
+    <row r="13">
+      <c r="A13" s="8" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="9" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="n"/>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="5" t="n"/>
-      <c r="J14" s="5" t="n"/>
-      <c r="K14" s="13" t="n"/>
+      <c r="A14" s="47" t="inlineStr">
+        <is>
+          <t>最高分</t>
+        </is>
+      </c>
+      <c r="B14" s="48" t="n"/>
+      <c r="C14" s="48" t="n"/>
+      <c r="D14" s="48" t="n"/>
+      <c r="E14" s="48" t="n"/>
+      <c r="F14" s="49" t="n"/>
+      <c r="G14" s="42">
+        <f>MAX(计算机成绩)</f>
+        <v/>
+      </c>
+      <c r="H14" s="42">
+        <f>MAX(H3:H12)</f>
+        <v/>
+      </c>
+      <c r="I14" s="42">
+        <f>MAX(I3:I12)</f>
+        <v/>
+      </c>
+      <c r="J14" s="50">
+        <f>SUM(J3:J12)</f>
+        <v/>
+      </c>
+      <c r="K14" s="50">
+        <f>SUM(K3:K12)</f>
+        <v/>
+      </c>
+      <c r="L14" s="13">
+        <f>ATAN2(J8,K12)</f>
+        <v/>
+      </c>
+      <c r="M14" s="9" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="inlineStr">
-        <is>
-          <t>最高分</t>
-        </is>
-      </c>
-      <c r="B15" s="36" t="n"/>
-      <c r="C15" s="36" t="n"/>
-      <c r="D15" s="37" t="n"/>
-      <c r="E15" s="33">
-        <f>MAX(计算机成绩)</f>
-        <v/>
-      </c>
-      <c r="F15" s="33">
-        <f>MAX(F3:F13)</f>
-        <v/>
-      </c>
-      <c r="G15" s="33">
-        <f>MAX(G3:G13)</f>
-        <v/>
-      </c>
-      <c r="H15" s="38">
-        <f>SUM(H3:H13)</f>
-        <v/>
-      </c>
-      <c r="I15" s="38">
-        <f>SUM(I3:I13)</f>
-        <v/>
-      </c>
-      <c r="J15" s="17">
-        <f>ATAN2(H9,I13)</f>
-        <v/>
-      </c>
-      <c r="K15" s="13" t="n"/>
+      <c r="A15" s="47" t="inlineStr">
+        <is>
+          <t>最低分</t>
+        </is>
+      </c>
+      <c r="B15" s="48" t="n"/>
+      <c r="C15" s="48" t="n"/>
+      <c r="D15" s="48" t="n"/>
+      <c r="E15" s="48" t="n"/>
+      <c r="F15" s="49" t="n"/>
+      <c r="G15" s="42">
+        <f>MIN(计算机成绩)</f>
+        <v/>
+      </c>
+      <c r="H15" s="42">
+        <f>MIN(H3:H12)</f>
+        <v/>
+      </c>
+      <c r="I15" s="42">
+        <f>MIN(I3:I12)</f>
+        <v/>
+      </c>
+      <c r="J15" s="51" t="n"/>
+      <c r="K15" s="51" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="9" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="35" t="inlineStr">
-        <is>
-          <t>最低分</t>
-        </is>
-      </c>
-      <c r="B16" s="36" t="n"/>
-      <c r="C16" s="36" t="n"/>
-      <c r="D16" s="37" t="n"/>
-      <c r="E16" s="33">
-        <f>MIN(计算机成绩)</f>
-        <v/>
-      </c>
-      <c r="F16" s="33">
-        <f>MIN(F3:F13)</f>
-        <v/>
-      </c>
-      <c r="G16" s="33">
-        <f>MIN(G3:G13)</f>
-        <v/>
-      </c>
-      <c r="H16" s="39" t="n"/>
-      <c r="I16" s="39" t="n"/>
-      <c r="J16" s="5" t="n"/>
-      <c r="K16" s="13" t="n"/>
+      <c r="A16" s="47" t="inlineStr">
+        <is>
+          <t>学生人数</t>
+        </is>
+      </c>
+      <c r="B16" s="48" t="n"/>
+      <c r="C16" s="48" t="n"/>
+      <c r="D16" s="48" t="n"/>
+      <c r="E16" s="48" t="n"/>
+      <c r="F16" s="49" t="n"/>
+      <c r="G16" s="2">
+        <f>COUNT(G3:G12)</f>
+        <v/>
+      </c>
+      <c r="H16" s="2">
+        <f>COUNT(H3:H12)</f>
+        <v/>
+      </c>
+      <c r="I16" s="2">
+        <f>COUNT(I3:I12)</f>
+        <v/>
+      </c>
+      <c r="J16" s="51" t="n"/>
+      <c r="K16" s="51" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="9" t="n"/>
     </row>
-    <row r="17" thickBot="1">
-      <c r="A17" s="35" t="inlineStr">
-        <is>
-          <t>学生人数</t>
-        </is>
-      </c>
-      <c r="B17" s="36" t="n"/>
-      <c r="C17" s="36" t="n"/>
-      <c r="D17" s="37" t="n"/>
-      <c r="E17" s="5">
-        <f>COUNT(E3:E13)</f>
-        <v/>
-      </c>
-      <c r="F17" s="5">
-        <f>COUNT(F3:F13)</f>
-        <v/>
-      </c>
-      <c r="G17" s="5">
-        <f>COUNT(G3:G13)</f>
-        <v/>
-      </c>
-      <c r="H17" s="39" t="n"/>
-      <c r="I17" s="39" t="n"/>
-      <c r="J17" s="5" t="n"/>
-      <c r="K17" s="13" t="n"/>
+    <row r="17" ht="14.5" customHeight="1" thickBot="1">
+      <c r="A17" s="52" t="inlineStr">
+        <is>
+          <t>及格人数</t>
+        </is>
+      </c>
+      <c r="B17" s="53" t="n"/>
+      <c r="C17" s="53" t="n"/>
+      <c r="D17" s="53" t="n"/>
+      <c r="E17" s="53" t="n"/>
+      <c r="F17" s="54" t="n"/>
+      <c r="G17" s="10">
+        <f>COUNTIF(计算机成绩,"&gt;=60")</f>
+        <v/>
+      </c>
+      <c r="H17" s="10">
+        <f>COUNTIF(H3:H12,"&gt;=60")</f>
+        <v/>
+      </c>
+      <c r="I17" s="10">
+        <f>COUNTIF(I3:I12,"&gt;=60")</f>
+        <v/>
+      </c>
+      <c r="J17" s="55" t="n"/>
+      <c r="K17" s="55" t="n"/>
+      <c r="L17" s="10" t="n"/>
+      <c r="M17" s="11" t="n"/>
     </row>
-    <row r="18" ht="14.5" customHeight="1" thickTop="1">
-      <c r="A18" s="40" t="inlineStr">
-        <is>
-          <t>及格人数</t>
-        </is>
-      </c>
-      <c r="B18" s="41" t="n"/>
-      <c r="C18" s="41" t="n"/>
-      <c r="D18" s="42" t="n"/>
-      <c r="E18" s="14">
-        <f>COUNTIF(计算机成绩,"&gt;=60")</f>
-        <v/>
-      </c>
-      <c r="F18" s="14">
-        <f>COUNTIF(F3:F13,"&gt;=60")</f>
-        <v/>
-      </c>
-      <c r="G18" s="14">
-        <f>COUNTIF(G3:G13,"&gt;=60")</f>
-        <v/>
-      </c>
-      <c r="H18" s="43" t="n"/>
-      <c r="I18" s="43" t="n"/>
-      <c r="J18" s="14" t="n"/>
-      <c r="K18" s="15" t="n"/>
-    </row>
+    <row r="18" ht="14.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="A15:F15"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:G12">
-    <cfRule type="cellIs" priority="1" operator="lessThan" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="lessThan" dxfId="15" stopIfTrue="1">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1601,7 +1964,7 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:H10"/>
     </sheetView>
   </sheetViews>
@@ -1617,141 +1980,141 @@
     <row r="5"/>
     <row r="6" ht="14.5" customHeight="1" thickBot="1"/>
     <row r="7" ht="14.5" customHeight="1" thickTop="1">
-      <c r="B7" s="44" t="inlineStr">
+      <c r="B7" s="56" t="inlineStr">
         <is>
           <t>统计项</t>
         </is>
       </c>
-      <c r="C7" s="45" t="n"/>
-      <c r="D7" s="45" t="n"/>
-      <c r="E7" s="46" t="n"/>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="C7" s="57" t="n"/>
+      <c r="D7" s="57" t="n"/>
+      <c r="E7" s="58" t="n"/>
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>计算机</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>大学英语</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="H7" s="1" t="inlineStr">
         <is>
           <t>高等数学</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="I7" s="1" t="inlineStr">
         <is>
           <t>总分</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="J7" s="1" t="inlineStr">
         <is>
           <t>平均分</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="35" t="inlineStr">
+      <c r="B8" s="47" t="inlineStr">
         <is>
           <t>最高分</t>
         </is>
       </c>
-      <c r="C8" s="36" t="n"/>
-      <c r="D8" s="36" t="n"/>
-      <c r="E8" s="37" t="n"/>
-      <c r="F8" s="33">
+      <c r="C8" s="48" t="n"/>
+      <c r="D8" s="48" t="n"/>
+      <c r="E8" s="49" t="n"/>
+      <c r="F8" s="42">
         <f>MAX(计算机成绩)</f>
         <v/>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="42">
         <f>MAX(原始数据!F3:F12)</f>
         <v/>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="42">
         <f>MAX(原始数据!G3:G12)</f>
         <v/>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="50">
         <f>SUM(原始数据!H3:H12)</f>
         <v/>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="50">
         <f>SUM(原始数据!H3:H12)</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="35" t="inlineStr">
+      <c r="B9" s="47" t="inlineStr">
         <is>
           <t>最低分</t>
         </is>
       </c>
-      <c r="C9" s="36" t="n"/>
-      <c r="D9" s="36" t="n"/>
-      <c r="E9" s="37" t="n"/>
-      <c r="F9" s="33">
+      <c r="C9" s="48" t="n"/>
+      <c r="D9" s="48" t="n"/>
+      <c r="E9" s="49" t="n"/>
+      <c r="F9" s="42">
         <f>MIN(计算机成绩)</f>
         <v/>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="42">
         <f>MIN(原始数据!F3:F12)</f>
         <v/>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="42">
         <f>MIN(原始数据!G3:G12)</f>
         <v/>
       </c>
-      <c r="I9" s="39" t="n"/>
-      <c r="J9" s="39" t="n"/>
+      <c r="I9" s="51" t="n"/>
+      <c r="J9" s="51" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="35" t="inlineStr">
+      <c r="B10" s="47" t="inlineStr">
         <is>
           <t>学生人数</t>
         </is>
       </c>
-      <c r="C10" s="36" t="n"/>
-      <c r="D10" s="36" t="n"/>
-      <c r="E10" s="37" t="n"/>
-      <c r="F10" s="5">
+      <c r="C10" s="48" t="n"/>
+      <c r="D10" s="48" t="n"/>
+      <c r="E10" s="49" t="n"/>
+      <c r="F10" s="2">
         <f>COUNT(计算机成绩)</f>
         <v/>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <f>COUNT(原始数据!F3:F12)</f>
         <v/>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="2">
         <f>COUNT(原始数据!G3:G12)</f>
         <v/>
       </c>
-      <c r="I10" s="39" t="n"/>
-      <c r="J10" s="39" t="n"/>
+      <c r="I10" s="51" t="n"/>
+      <c r="J10" s="51" t="n"/>
     </row>
     <row r="11" ht="14.5" customHeight="1" thickBot="1">
-      <c r="B11" s="40" t="inlineStr">
+      <c r="B11" s="52" t="inlineStr">
         <is>
           <t>及格人数</t>
         </is>
       </c>
-      <c r="C11" s="41" t="n"/>
-      <c r="D11" s="41" t="n"/>
-      <c r="E11" s="42" t="n"/>
-      <c r="F11" s="14">
+      <c r="C11" s="53" t="n"/>
+      <c r="D11" s="53" t="n"/>
+      <c r="E11" s="54" t="n"/>
+      <c r="F11" s="10">
         <f>COUNTIF(计算机成绩,"&gt;=60")</f>
         <v/>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="10">
         <f>COUNTIF((原始数据!F3:F12),"&gt;=60")</f>
         <v/>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="10">
         <f>COUNTIF((原始数据!G3:G12),"&gt;=60")</f>
         <v/>
       </c>
-      <c r="I11" s="43" t="n"/>
-      <c r="J11" s="43" t="n"/>
+      <c r="I11" s="55" t="n"/>
+      <c r="J11" s="55" t="n"/>
     </row>
     <row r="12" ht="14.5" customHeight="1" thickTop="1"/>
   </sheetData>

--- a/bb_openpyxl/tests/out.xlsx
+++ b/bb_openpyxl/tests/out.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="测试另一个sheet">'汇总!'!#REF!</definedName>
-    <definedName name="计算机成绩">原始数据!$G$3:$G$12</definedName>
+    <definedName name="计算机成绩">原始数据!$E$3:$E$12</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -566,13 +566,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,22 +940,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="A2:M12" headerRowCount="1" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="A2:K12" headerRowCount="1" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
   <autoFilter ref="A2:K12"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="学号"/>
-    <tableColumn id="2" name="None"/>
-    <tableColumn id="3" name="None"/>
-    <tableColumn id="4" name="姓名"/>
-    <tableColumn id="5" name="出生日期"/>
-    <tableColumn id="6" name="专业"/>
-    <tableColumn id="7" name="计算机"/>
-    <tableColumn id="8" name="大学英语"/>
-    <tableColumn id="9" name="高等数学"/>
-    <tableColumn id="10" name="总分"/>
-    <tableColumn id="11" name="平均分"/>
-    <tableColumn id="12" name="排名"/>
-    <tableColumn id="13" name="总评"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="学号" dataDxfId="11"/>
+    <tableColumn id="2" name="姓名" dataDxfId="10"/>
+    <tableColumn id="3" name="出生日期" dataDxfId="9"/>
+    <tableColumn id="4" name="专业" dataDxfId="8"/>
+    <tableColumn id="5" name="计算机" dataDxfId="7"/>
+    <tableColumn id="6" name="大学英语" dataDxfId="6"/>
+    <tableColumn id="7" name="高等数学" dataDxfId="5"/>
+    <tableColumn id="8" name="总分" dataDxfId="4">
+      <calculatedColumnFormula>SUM(E3:G3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="平均分" dataDxfId="3">
+      <calculatedColumnFormula>AVERAGE(E3:G3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="排名" dataDxfId="2">
+      <calculatedColumnFormula>RANK(I3,$I$3:$I$12,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="总评" dataDxfId="1">
+      <calculatedColumnFormula>IF(I3&gt;=60,"及格","不及格")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1250,7 +1256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
@@ -1261,15 +1267,10 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="7"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="11.08984375" customWidth="1" min="8" max="8"/>
-    <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="13" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="11.08984375" customWidth="1" min="6" max="7"/>
+    <col width="9" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.5" customHeight="1" thickBot="1">
@@ -1288,8 +1289,6 @@
       <c r="I1" s="40" t="n"/>
       <c r="J1" s="40" t="n"/>
       <c r="K1" s="40" t="n"/>
-      <c r="L1" s="40" t="n"/>
-      <c r="M1" s="40" t="n"/>
     </row>
     <row r="2" ht="14.5" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="inlineStr">
@@ -1297,52 +1296,52 @@
           <t>学号</t>
         </is>
       </c>
+      <c r="B2" s="31" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="C2" s="31" t="inlineStr">
+        <is>
+          <t>出生日期</t>
+        </is>
+      </c>
       <c r="D2" s="31" t="inlineStr">
         <is>
-          <t>姓名</t>
+          <t>专业</t>
         </is>
       </c>
       <c r="E2" s="31" t="inlineStr">
         <is>
-          <t>出生日期</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F2" s="31" t="inlineStr">
         <is>
-          <t>专业</t>
+          <t>大学英语</t>
         </is>
       </c>
       <c r="G2" s="31" t="inlineStr">
         <is>
-          <t>计算机</t>
+          <t>高等数学</t>
         </is>
       </c>
       <c r="H2" s="31" t="inlineStr">
         <is>
-          <t>大学英语</t>
+          <t>总分</t>
         </is>
       </c>
       <c r="I2" s="31" t="inlineStr">
         <is>
-          <t>高等数学</t>
+          <t>平均分</t>
         </is>
       </c>
       <c r="J2" s="31" t="inlineStr">
         <is>
-          <t>总分</t>
-        </is>
-      </c>
-      <c r="K2" s="31" t="inlineStr">
-        <is>
-          <t>平均分</t>
-        </is>
-      </c>
-      <c r="L2" s="31" t="inlineStr">
-        <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="M2" s="32" t="inlineStr">
+      <c r="K2" s="32" t="inlineStr">
         <is>
           <t>总评</t>
         </is>
@@ -1351,456 +1350,458 @@
     <row r="3">
       <c r="A3" s="28" t="inlineStr">
         <is>
-          <t>0126001</t>
-        </is>
+          <t>0126002</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>赵东升</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>34011</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>李晓慧</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>34466</v>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
           <t>生态环境</t>
         </is>
       </c>
-      <c r="G3" s="41" t="n">
-        <v>90</v>
-      </c>
-      <c r="H3" s="41" t="n">
-        <v>85</v>
-      </c>
-      <c r="I3" s="41" t="n">
-        <v>86</v>
-      </c>
-      <c r="J3" s="42">
-        <f>SUM(G3:I3)</f>
-        <v/>
-      </c>
-      <c r="K3" s="42">
-        <f>AVERAGE(G3:I3)</f>
-        <v/>
-      </c>
-      <c r="L3" s="6">
-        <f>RANK(K3,$K$3:$K$12,0)</f>
-        <v/>
-      </c>
-      <c r="M3" s="29">
-        <f>IF(K3&gt;=60,"及格","不及格")</f>
+      <c r="E3" s="41" t="n">
+        <v>91</v>
+      </c>
+      <c r="F3" s="42" t="n">
+        <v>82</v>
+      </c>
+      <c r="G3" s="42" t="n">
+        <v>83</v>
+      </c>
+      <c r="H3" s="43">
+        <f>SUM(E3:G3)</f>
+        <v/>
+      </c>
+      <c r="I3" s="43">
+        <f>AVERAGE(E3:G3)</f>
+        <v/>
+      </c>
+      <c r="J3" s="6">
+        <f>RANK(I3,$I$3:$I$12,0)</f>
+        <v/>
+      </c>
+      <c r="K3" s="29">
+        <f>IF(I3&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="28" t="inlineStr">
         <is>
-          <t>0126002</t>
-        </is>
+          <t>0126001</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>李晓慧</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>34466</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>赵东升</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>34011</v>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
           <t>生态环境</t>
         </is>
       </c>
-      <c r="G4" s="43" t="n">
-        <v>91</v>
-      </c>
-      <c r="H4" s="41" t="n">
-        <v>82</v>
-      </c>
-      <c r="I4" s="41" t="n">
-        <v>83</v>
-      </c>
-      <c r="J4" s="42">
-        <f>SUM(G4:I4)</f>
-        <v/>
-      </c>
-      <c r="K4" s="42">
-        <f>AVERAGE(G4:I4)</f>
-        <v/>
-      </c>
-      <c r="L4" s="6">
-        <f>RANK(K4,$K$3:$K$12,0)</f>
-        <v/>
-      </c>
-      <c r="M4" s="29">
-        <f>IF(K4&gt;=60,"及格","不及格")</f>
+      <c r="E4" s="42" t="n">
+        <v>90</v>
+      </c>
+      <c r="F4" s="42" t="n">
+        <v>85</v>
+      </c>
+      <c r="G4" s="42" t="n">
+        <v>86</v>
+      </c>
+      <c r="H4" s="43">
+        <f>SUM(E4:G4)</f>
+        <v/>
+      </c>
+      <c r="I4" s="43">
+        <f>AVERAGE(E4:G4)</f>
+        <v/>
+      </c>
+      <c r="J4" s="6">
+        <f>RANK(I4,$I$3:$I$12,0)</f>
+        <v/>
+      </c>
+      <c r="K4" s="29">
+        <f>IF(I4&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="28" t="inlineStr">
         <is>
-          <t>0126003</t>
-        </is>
+          <t>0126007</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>毛容容</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>34347</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>王老伍</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>34127</v>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>生态环境</t>
-        </is>
-      </c>
-      <c r="G5" s="41" t="n">
-        <v>74</v>
-      </c>
-      <c r="H5" s="41" t="n">
-        <v>86</v>
-      </c>
-      <c r="I5" s="41" t="n">
-        <v>77</v>
-      </c>
-      <c r="J5" s="42">
-        <f>SUM(G5:I5)</f>
-        <v/>
-      </c>
-      <c r="K5" s="42">
-        <f>AVERAGE(G5:I5)</f>
-        <v/>
-      </c>
-      <c r="L5" s="6">
-        <f>RANK(K5,$K$3:$K$12,0)</f>
-        <v/>
-      </c>
-      <c r="M5" s="29">
-        <f>IF(K5&gt;=60,"及格","不及格")</f>
+          <t>工程造价</t>
+        </is>
+      </c>
+      <c r="E5" s="42" t="n">
+        <v>82</v>
+      </c>
+      <c r="F5" s="42" t="n">
+        <v>83</v>
+      </c>
+      <c r="G5" s="42" t="n">
+        <v>81</v>
+      </c>
+      <c r="H5" s="43">
+        <f>SUM(E5:G5)</f>
+        <v/>
+      </c>
+      <c r="I5" s="43">
+        <f>AVERAGE(E5:G5)</f>
+        <v/>
+      </c>
+      <c r="J5" s="6">
+        <f>RANK(I5,$I$3:$I$12,0)</f>
+        <v/>
+      </c>
+      <c r="K5" s="29">
+        <f>IF(I5&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="48" customHeight="1">
-      <c r="A6" s="28" t="inlineStr">
-        <is>
-          <t>0126004</t>
-        </is>
-      </c>
-      <c r="D6" s="12" t="inlineStr">
-        <is>
-          <t>马胜军
-(Porter)</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>34572</v>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>工程造价</t>
-        </is>
-      </c>
-      <c r="G6" s="41" t="n">
-        <v>80</v>
-      </c>
-      <c r="H6" s="41" t="n">
-        <v>52</v>
-      </c>
-      <c r="I6" s="43" t="n">
+      <c r="A6" s="34" t="inlineStr">
+        <is>
+          <t>0126010</t>
+        </is>
+      </c>
+      <c r="B6" s="33" t="inlineStr">
+        <is>
+          <t>韦国陶</t>
+        </is>
+      </c>
+      <c r="C6" s="35" t="n">
+        <v>34250</v>
+      </c>
+      <c r="D6" s="33" t="inlineStr">
+        <is>
+          <t>电子商务</t>
+        </is>
+      </c>
+      <c r="E6" s="44" t="n">
+        <v>81</v>
+      </c>
+      <c r="F6" s="45" t="n">
+        <v>95</v>
+      </c>
+      <c r="G6" s="45" t="n">
         <v>88</v>
       </c>
-      <c r="J6" s="42">
-        <f>SUM(G6:I6)</f>
-        <v/>
-      </c>
-      <c r="K6" s="42">
-        <f>AVERAGE(G6:I6)</f>
-        <v/>
-      </c>
-      <c r="L6" s="6">
-        <f>RANK(K6,$K$3:$K$12,0)</f>
-        <v/>
-      </c>
-      <c r="M6" s="29">
-        <f>IF(K6&gt;=60,"及格","不及格")</f>
+      <c r="H6" s="43">
+        <f>SUM(E6:G6)</f>
+        <v/>
+      </c>
+      <c r="I6" s="43">
+        <f>AVERAGE(E6:G6)</f>
+        <v/>
+      </c>
+      <c r="J6" s="6">
+        <f>RANK(I6,$I$3:$I$12,0)</f>
+        <v/>
+      </c>
+      <c r="K6" s="29">
+        <f>IF(I6&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="28" t="inlineStr">
         <is>
-          <t>0126005</t>
-        </is>
+          <t>0126004</t>
+        </is>
+      </c>
+      <c r="B7" s="12" t="inlineStr">
+        <is>
+          <t>马胜军
+(Porter)</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>34572</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>刘洁洋</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>34305</v>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
           <t>工程造价</t>
         </is>
       </c>
+      <c r="E7" s="42" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" s="42" t="n">
+        <v>52</v>
+      </c>
       <c r="G7" s="41" t="n">
-        <v>78</v>
-      </c>
-      <c r="H7" s="41" t="n">
-        <v>68</v>
-      </c>
-      <c r="I7" s="41" t="n">
-        <v>86</v>
-      </c>
-      <c r="J7" s="42">
-        <f>SUM(G7:I7)</f>
-        <v/>
-      </c>
-      <c r="K7" s="42">
-        <f>AVERAGE(G7:I7)</f>
-        <v/>
-      </c>
-      <c r="L7" s="6">
-        <f>RANK(K7,$K$3:$K$12,0)</f>
-        <v/>
-      </c>
-      <c r="M7" s="29">
-        <f>IF(K7&gt;=60,"及格","不及格")</f>
+        <v>88</v>
+      </c>
+      <c r="H7" s="43">
+        <f>SUM(E7:G7)</f>
+        <v/>
+      </c>
+      <c r="I7" s="43">
+        <f>AVERAGE(E7:G7)</f>
+        <v/>
+      </c>
+      <c r="J7" s="6">
+        <f>RANK(I7,$I$3:$I$12,0)</f>
+        <v/>
+      </c>
+      <c r="K7" s="29">
+        <f>IF(I7&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="28" t="inlineStr">
         <is>
-          <t>0126006</t>
-        </is>
+          <t>0126005</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>刘洁洋</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>34305</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>唐小东</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>34289</v>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
           <t>工程造价</t>
         </is>
       </c>
-      <c r="G8" s="41" t="n">
-        <v>67</v>
-      </c>
-      <c r="H8" s="41" t="n">
-        <v>65</v>
-      </c>
-      <c r="I8" s="41" t="n">
-        <v>44</v>
-      </c>
-      <c r="J8" s="42">
-        <f>SUM(G8:I8)</f>
-        <v/>
-      </c>
-      <c r="K8" s="42">
-        <f>AVERAGE(G8:I8)</f>
-        <v/>
-      </c>
-      <c r="L8" s="6">
-        <f>RANK(K8,$K$3:$K$12,0)</f>
-        <v/>
-      </c>
-      <c r="M8" s="29">
-        <f>IF(K8&gt;=60,"及格","不及格")</f>
+      <c r="E8" s="42" t="n">
+        <v>78</v>
+      </c>
+      <c r="F8" s="42" t="n">
+        <v>68</v>
+      </c>
+      <c r="G8" s="42" t="n">
+        <v>86</v>
+      </c>
+      <c r="H8" s="43">
+        <f>SUM(E8:G8)</f>
+        <v/>
+      </c>
+      <c r="I8" s="43">
+        <f>AVERAGE(E8:G8)</f>
+        <v/>
+      </c>
+      <c r="J8" s="6">
+        <f>RANK(I8,$I$3:$I$12,0)</f>
+        <v/>
+      </c>
+      <c r="K8" s="29">
+        <f>IF(I8&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="28" t="inlineStr">
         <is>
-          <t>0126007</t>
-        </is>
+          <t>0126003</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>王老伍</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>34127</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>毛容容</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>34347</v>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>工程造价</t>
-        </is>
-      </c>
-      <c r="G9" s="41" t="n">
-        <v>82</v>
-      </c>
-      <c r="H9" s="41" t="n">
-        <v>83</v>
-      </c>
-      <c r="I9" s="41" t="n">
-        <v>81</v>
-      </c>
-      <c r="J9" s="42">
-        <f>SUM(G9:I9)</f>
-        <v/>
-      </c>
-      <c r="K9" s="42">
-        <f>AVERAGE(G9:I9)</f>
-        <v/>
-      </c>
-      <c r="L9" s="6">
-        <f>RANK(K9,$K$3:$K$12,0)</f>
-        <v/>
-      </c>
-      <c r="M9" s="29">
-        <f>IF(K9&gt;=60,"及格","不及格")</f>
+          <t>生态环境</t>
+        </is>
+      </c>
+      <c r="E9" s="42" t="n">
+        <v>74</v>
+      </c>
+      <c r="F9" s="42" t="n">
+        <v>86</v>
+      </c>
+      <c r="G9" s="42" t="n">
+        <v>77</v>
+      </c>
+      <c r="H9" s="43">
+        <f>SUM(E9:G9)</f>
+        <v/>
+      </c>
+      <c r="I9" s="43">
+        <f>AVERAGE(E9:G9)</f>
+        <v/>
+      </c>
+      <c r="J9" s="6">
+        <f>RANK(I9,$I$3:$I$12,0)</f>
+        <v/>
+      </c>
+      <c r="K9" s="29">
+        <f>IF(I9&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="28" t="inlineStr">
         <is>
-          <t>0126008</t>
-        </is>
+          <t>0126009</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>陈思敏</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>34460</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>张珊珊</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>34372</v>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
           <t>电子商务</t>
         </is>
       </c>
-      <c r="G10" s="41" t="n">
-        <v>56</v>
-      </c>
-      <c r="H10" s="41" t="n">
-        <v>42</v>
-      </c>
-      <c r="I10" s="41" t="n">
-        <v>66</v>
-      </c>
-      <c r="J10" s="42">
-        <f>SUM(G10:I10)</f>
-        <v/>
-      </c>
-      <c r="K10" s="42">
-        <f>AVERAGE(G10:I10)</f>
-        <v/>
-      </c>
-      <c r="L10" s="6">
-        <f>RANK(K10,$K$3:$K$12,0)</f>
-        <v/>
-      </c>
-      <c r="M10" s="29">
-        <f>IF(K10&gt;=60,"及格","不及格")</f>
+      <c r="E10" s="42" t="n">
+        <v>69</v>
+      </c>
+      <c r="F10" s="42" t="n">
+        <v>87</v>
+      </c>
+      <c r="G10" s="42" t="n">
+        <v>85</v>
+      </c>
+      <c r="H10" s="43">
+        <f>SUM(E10:G10)</f>
+        <v/>
+      </c>
+      <c r="I10" s="43">
+        <f>AVERAGE(E10:G10)</f>
+        <v/>
+      </c>
+      <c r="J10" s="6">
+        <f>RANK(I10,$I$3:$I$12,0)</f>
+        <v/>
+      </c>
+      <c r="K10" s="29">
+        <f>IF(I10&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="28" t="inlineStr">
         <is>
-          <t>0126009</t>
-        </is>
+          <t>0126006</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>唐小东</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>34289</v>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>陈思敏</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>34460</v>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>电子商务</t>
-        </is>
-      </c>
-      <c r="G11" s="41" t="n">
-        <v>69</v>
-      </c>
-      <c r="H11" s="41" t="n">
-        <v>87</v>
-      </c>
-      <c r="I11" s="41" t="n">
-        <v>85</v>
-      </c>
-      <c r="J11" s="42">
-        <f>SUM(G11:I11)</f>
-        <v/>
-      </c>
-      <c r="K11" s="42">
-        <f>AVERAGE(G11:I11)</f>
-        <v/>
-      </c>
-      <c r="L11" s="6">
-        <f>RANK(K11,$K$3:$K$12,0)</f>
-        <v/>
-      </c>
-      <c r="M11" s="29">
-        <f>IF(K11&gt;=60,"及格","不及格")</f>
+          <t>工程造价</t>
+        </is>
+      </c>
+      <c r="E11" s="42" t="n">
+        <v>67</v>
+      </c>
+      <c r="F11" s="42" t="n">
+        <v>65</v>
+      </c>
+      <c r="G11" s="42" t="n">
+        <v>44</v>
+      </c>
+      <c r="H11" s="43">
+        <f>SUM(E11:G11)</f>
+        <v/>
+      </c>
+      <c r="I11" s="43">
+        <f>AVERAGE(E11:G11)</f>
+        <v/>
+      </c>
+      <c r="J11" s="6">
+        <f>RANK(I11,$I$3:$I$12,0)</f>
+        <v/>
+      </c>
+      <c r="K11" s="29">
+        <f>IF(I11&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="34" t="inlineStr">
-        <is>
-          <t>0126010</t>
-        </is>
-      </c>
-      <c r="D12" s="33" t="inlineStr">
-        <is>
-          <t>韦国陶</t>
-        </is>
-      </c>
-      <c r="E12" s="35" t="n">
-        <v>34250</v>
-      </c>
-      <c r="F12" s="33" t="inlineStr">
+      <c r="A12" s="28" t="inlineStr">
+        <is>
+          <t>0126008</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>张珊珊</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>34372</v>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>电子商务</t>
         </is>
       </c>
-      <c r="G12" s="44" t="n">
-        <v>81</v>
-      </c>
-      <c r="H12" s="45" t="n">
-        <v>95</v>
-      </c>
-      <c r="I12" s="45" t="n">
-        <v>88</v>
-      </c>
-      <c r="J12" s="46">
-        <f>SUM(G12:I12)</f>
-        <v/>
-      </c>
-      <c r="K12" s="46">
-        <f>AVERAGE(G12:I12)</f>
-        <v/>
-      </c>
-      <c r="L12" s="38">
-        <f>RANK(K12,$K$3:$K$12,0)</f>
-        <v/>
-      </c>
-      <c r="M12" s="39">
-        <f>IF(K12&gt;=60,"及格","不及格")</f>
+      <c r="E12" s="42" t="n">
+        <v>56</v>
+      </c>
+      <c r="F12" s="42" t="n">
+        <v>42</v>
+      </c>
+      <c r="G12" s="42" t="n">
+        <v>66</v>
+      </c>
+      <c r="H12" s="46">
+        <f>SUM(E12:G12)</f>
+        <v/>
+      </c>
+      <c r="I12" s="46">
+        <f>AVERAGE(E12:G12)</f>
+        <v/>
+      </c>
+      <c r="J12" s="38">
+        <f>RANK(I12,$I$3:$I$12,0)</f>
+        <v/>
+      </c>
+      <c r="K12" s="39">
+        <f>IF(I12&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="n"/>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
       <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -1808,9 +1809,7 @@
       <c r="H13" s="2" t="n"/>
       <c r="I13" s="2" t="n"/>
       <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
-      <c r="M13" s="9" t="n"/>
+      <c r="K13" s="9" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="47" t="inlineStr">
@@ -1820,34 +1819,32 @@
       </c>
       <c r="B14" s="48" t="n"/>
       <c r="C14" s="48" t="n"/>
-      <c r="D14" s="48" t="n"/>
-      <c r="E14" s="48" t="n"/>
-      <c r="F14" s="49" t="n"/>
-      <c r="G14" s="42">
+      <c r="D14" s="49" t="n"/>
+      <c r="E14" s="43">
         <f>MAX(计算机成绩)</f>
         <v/>
       </c>
-      <c r="H14" s="42">
-        <f>MAX(H3:H12)</f>
-        <v/>
-      </c>
-      <c r="I14" s="42">
-        <f>MAX(I3:I12)</f>
-        <v/>
-      </c>
-      <c r="J14" s="50">
-        <f>SUM(J3:J12)</f>
-        <v/>
-      </c>
-      <c r="K14" s="50">
-        <f>SUM(K3:K12)</f>
-        <v/>
-      </c>
-      <c r="L14" s="13">
-        <f>ATAN2(J8,K12)</f>
-        <v/>
-      </c>
-      <c r="M14" s="9" t="n"/>
+      <c r="F14" s="43">
+        <f>MAX(F3:F12)</f>
+        <v/>
+      </c>
+      <c r="G14" s="43">
+        <f>MAX(G3:G12)</f>
+        <v/>
+      </c>
+      <c r="H14" s="50">
+        <f>SUM(H3:H12)</f>
+        <v/>
+      </c>
+      <c r="I14" s="50">
+        <f>SUM(I3:I12)</f>
+        <v/>
+      </c>
+      <c r="J14" s="13">
+        <f>ATAN2(H8,I12)</f>
+        <v/>
+      </c>
+      <c r="K14" s="9" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="47" t="inlineStr">
@@ -1857,25 +1854,23 @@
       </c>
       <c r="B15" s="48" t="n"/>
       <c r="C15" s="48" t="n"/>
-      <c r="D15" s="48" t="n"/>
-      <c r="E15" s="48" t="n"/>
-      <c r="F15" s="49" t="n"/>
-      <c r="G15" s="42">
+      <c r="D15" s="49" t="n"/>
+      <c r="E15" s="43">
         <f>MIN(计算机成绩)</f>
         <v/>
       </c>
-      <c r="H15" s="42">
-        <f>MIN(H3:H12)</f>
-        <v/>
-      </c>
-      <c r="I15" s="42">
-        <f>MIN(I3:I12)</f>
-        <v/>
-      </c>
-      <c r="J15" s="51" t="n"/>
-      <c r="K15" s="51" t="n"/>
-      <c r="L15" s="2" t="n"/>
-      <c r="M15" s="9" t="n"/>
+      <c r="F15" s="43">
+        <f>MIN(F3:F12)</f>
+        <v/>
+      </c>
+      <c r="G15" s="43">
+        <f>MIN(G3:G12)</f>
+        <v/>
+      </c>
+      <c r="H15" s="51" t="n"/>
+      <c r="I15" s="51" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="9" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="47" t="inlineStr">
@@ -1885,25 +1880,23 @@
       </c>
       <c r="B16" s="48" t="n"/>
       <c r="C16" s="48" t="n"/>
-      <c r="D16" s="48" t="n"/>
-      <c r="E16" s="48" t="n"/>
-      <c r="F16" s="49" t="n"/>
+      <c r="D16" s="49" t="n"/>
+      <c r="E16" s="2">
+        <f>COUNT(E3:E12)</f>
+        <v/>
+      </c>
+      <c r="F16" s="2">
+        <f>COUNT(F3:F12)</f>
+        <v/>
+      </c>
       <c r="G16" s="2">
         <f>COUNT(G3:G12)</f>
         <v/>
       </c>
-      <c r="H16" s="2">
-        <f>COUNT(H3:H12)</f>
-        <v/>
-      </c>
-      <c r="I16" s="2">
-        <f>COUNT(I3:I12)</f>
-        <v/>
-      </c>
-      <c r="J16" s="51" t="n"/>
-      <c r="K16" s="51" t="n"/>
-      <c r="L16" s="2" t="n"/>
-      <c r="M16" s="9" t="n"/>
+      <c r="H16" s="51" t="n"/>
+      <c r="I16" s="51" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="9" t="n"/>
     </row>
     <row r="17" ht="14.5" customHeight="1" thickBot="1">
       <c r="A17" s="52" t="inlineStr">
@@ -1913,36 +1906,34 @@
       </c>
       <c r="B17" s="53" t="n"/>
       <c r="C17" s="53" t="n"/>
-      <c r="D17" s="53" t="n"/>
-      <c r="E17" s="53" t="n"/>
-      <c r="F17" s="54" t="n"/>
+      <c r="D17" s="54" t="n"/>
+      <c r="E17" s="10">
+        <f>COUNTIF(计算机成绩,"&gt;=60")</f>
+        <v/>
+      </c>
+      <c r="F17" s="10">
+        <f>COUNTIF(F3:F12,"&gt;=60")</f>
+        <v/>
+      </c>
       <c r="G17" s="10">
-        <f>COUNTIF(计算机成绩,"&gt;=60")</f>
-        <v/>
-      </c>
-      <c r="H17" s="10">
-        <f>COUNTIF(H3:H12,"&gt;=60")</f>
-        <v/>
-      </c>
-      <c r="I17" s="10">
-        <f>COUNTIF(I3:I12,"&gt;=60")</f>
-        <v/>
-      </c>
-      <c r="J17" s="55" t="n"/>
-      <c r="K17" s="55" t="n"/>
-      <c r="L17" s="10" t="n"/>
-      <c r="M17" s="11" t="n"/>
+        <f>COUNTIF(G3:G12,"&gt;=60")</f>
+        <v/>
+      </c>
+      <c r="H17" s="55" t="n"/>
+      <c r="I17" s="55" t="n"/>
+      <c r="J17" s="10" t="n"/>
+      <c r="K17" s="11" t="n"/>
     </row>
     <row r="18" ht="14.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:G12">
     <cfRule type="cellIs" priority="1" operator="lessThan" dxfId="15" stopIfTrue="1">
@@ -1962,7 +1953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="B7:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:H10"/>
@@ -1973,11 +1964,6 @@
     <col width="11.36328125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
     <row r="6" ht="14.5" customHeight="1" thickBot="1"/>
     <row r="7" ht="14.5" customHeight="1" thickTop="1">
       <c r="B7" s="56" t="inlineStr">
@@ -2023,15 +2009,15 @@
       <c r="C8" s="48" t="n"/>
       <c r="D8" s="48" t="n"/>
       <c r="E8" s="49" t="n"/>
-      <c r="F8" s="42">
+      <c r="F8" s="43">
         <f>MAX(计算机成绩)</f>
         <v/>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="43">
         <f>MAX(原始数据!F3:F12)</f>
         <v/>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="43">
         <f>MAX(原始数据!G3:G12)</f>
         <v/>
       </c>
@@ -2053,15 +2039,15 @@
       <c r="C9" s="48" t="n"/>
       <c r="D9" s="48" t="n"/>
       <c r="E9" s="49" t="n"/>
-      <c r="F9" s="42">
+      <c r="F9" s="43">
         <f>MIN(计算机成绩)</f>
         <v/>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="43">
         <f>MIN(原始数据!F3:F12)</f>
         <v/>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="43">
         <f>MIN(原始数据!G3:G12)</f>
         <v/>
       </c>

--- a/bb_openpyxl/tests/out.xlsx
+++ b/bb_openpyxl/tests/out.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="测试另一个sheet">'汇总!'!#REF!</definedName>
-    <definedName name="计算机成绩">原始数据!$E$3:$E$12</definedName>
+    <definedName name="计算机成绩">原始数据!$G$3:$G$12</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -566,13 +566,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,28 +940,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="A2:K12" headerRowCount="1" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="A2:M12" headerRowCount="1" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
   <autoFilter ref="A2:K12"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="学号" dataDxfId="11"/>
-    <tableColumn id="2" name="姓名" dataDxfId="10"/>
-    <tableColumn id="3" name="出生日期" dataDxfId="9"/>
-    <tableColumn id="4" name="专业" dataDxfId="8"/>
-    <tableColumn id="5" name="计算机" dataDxfId="7"/>
-    <tableColumn id="6" name="大学英语" dataDxfId="6"/>
-    <tableColumn id="7" name="高等数学" dataDxfId="5"/>
-    <tableColumn id="8" name="总分" dataDxfId="4">
-      <calculatedColumnFormula>SUM(E3:G3)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" name="平均分" dataDxfId="3">
-      <calculatedColumnFormula>AVERAGE(E3:G3)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="排名" dataDxfId="2">
-      <calculatedColumnFormula>RANK(I3,$I$3:$I$12,0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" name="总评" dataDxfId="1">
-      <calculatedColumnFormula>IF(I3&gt;=60,"及格","不及格")</calculatedColumnFormula>
-    </tableColumn>
+  <tableColumns count="13">
+    <tableColumn id="1" name="学号"/>
+    <tableColumn id="2" name="列1"/>
+    <tableColumn id="3" name="列2"/>
+    <tableColumn id="4" name="姓名"/>
+    <tableColumn id="5" name="出生日期"/>
+    <tableColumn id="6" name="专业"/>
+    <tableColumn id="7" name="计算机"/>
+    <tableColumn id="8" name="大学英语"/>
+    <tableColumn id="9" name="高等数学"/>
+    <tableColumn id="10" name="总分"/>
+    <tableColumn id="11" name="平均分"/>
+    <tableColumn id="12" name="排名"/>
+    <tableColumn id="13" name="总评"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1256,7 +1250,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
@@ -1267,10 +1261,16 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="11.08984375" customWidth="1" min="6" max="7"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="6" max="7"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="11.08984375" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.5" customHeight="1" thickBot="1">
@@ -1289,6 +1289,8 @@
       <c r="I1" s="40" t="n"/>
       <c r="J1" s="40" t="n"/>
       <c r="K1" s="40" t="n"/>
+      <c r="L1" s="40" t="n"/>
+      <c r="M1" s="40" t="n"/>
     </row>
     <row r="2" ht="14.5" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="inlineStr">
@@ -1296,52 +1298,62 @@
           <t>学号</t>
         </is>
       </c>
-      <c r="B2" s="31" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>列1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>列2</t>
+        </is>
+      </c>
+      <c r="D2" s="31" t="inlineStr">
         <is>
           <t>姓名</t>
         </is>
       </c>
-      <c r="C2" s="31" t="inlineStr">
+      <c r="E2" s="31" t="inlineStr">
         <is>
           <t>出生日期</t>
         </is>
       </c>
-      <c r="D2" s="31" t="inlineStr">
+      <c r="F2" s="31" t="inlineStr">
         <is>
           <t>专业</t>
         </is>
       </c>
-      <c r="E2" s="31" t="inlineStr">
+      <c r="G2" s="31" t="inlineStr">
         <is>
           <t>计算机</t>
         </is>
       </c>
-      <c r="F2" s="31" t="inlineStr">
+      <c r="H2" s="31" t="inlineStr">
         <is>
           <t>大学英语</t>
         </is>
       </c>
-      <c r="G2" s="31" t="inlineStr">
+      <c r="I2" s="31" t="inlineStr">
         <is>
           <t>高等数学</t>
         </is>
       </c>
-      <c r="H2" s="31" t="inlineStr">
+      <c r="J2" s="31" t="inlineStr">
         <is>
           <t>总分</t>
         </is>
       </c>
-      <c r="I2" s="31" t="inlineStr">
+      <c r="K2" s="31" t="inlineStr">
         <is>
           <t>平均分</t>
         </is>
       </c>
-      <c r="J2" s="31" t="inlineStr">
+      <c r="L2" s="31" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="K2" s="32" t="inlineStr">
+      <c r="M2" s="32" t="inlineStr">
         <is>
           <t>总评</t>
         </is>
@@ -1350,458 +1362,456 @@
     <row r="3">
       <c r="A3" s="28" t="inlineStr">
         <is>
-          <t>0126002</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>赵东升</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>34011</v>
+          <t>0126001</t>
+        </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
+          <t>李晓慧</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>34466</v>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
           <t>生态环境</t>
         </is>
       </c>
-      <c r="E3" s="41" t="n">
-        <v>91</v>
-      </c>
-      <c r="F3" s="42" t="n">
-        <v>82</v>
-      </c>
-      <c r="G3" s="42" t="n">
-        <v>83</v>
-      </c>
-      <c r="H3" s="43">
-        <f>SUM(E3:G3)</f>
-        <v/>
-      </c>
-      <c r="I3" s="43">
-        <f>AVERAGE(E3:G3)</f>
-        <v/>
-      </c>
-      <c r="J3" s="6">
-        <f>RANK(I3,$I$3:$I$12,0)</f>
-        <v/>
-      </c>
-      <c r="K3" s="29">
-        <f>IF(I3&gt;=60,"及格","不及格")</f>
+      <c r="G3" s="41" t="n">
+        <v>90</v>
+      </c>
+      <c r="H3" s="41" t="n">
+        <v>85</v>
+      </c>
+      <c r="I3" s="41" t="n">
+        <v>86</v>
+      </c>
+      <c r="J3" s="42">
+        <f>SUM(G3:I3)</f>
+        <v/>
+      </c>
+      <c r="K3" s="42">
+        <f>AVERAGE(G3:I3)</f>
+        <v/>
+      </c>
+      <c r="L3" s="6">
+        <f>RANK(K3,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M3" s="29">
+        <f>IF(K3&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="28" t="inlineStr">
         <is>
-          <t>0126001</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>李晓慧</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>34466</v>
+          <t>0126002</t>
+        </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>赵东升</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>34011</v>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>生态环境</t>
         </is>
       </c>
-      <c r="E4" s="42" t="n">
-        <v>90</v>
-      </c>
-      <c r="F4" s="42" t="n">
-        <v>85</v>
-      </c>
-      <c r="G4" s="42" t="n">
-        <v>86</v>
-      </c>
-      <c r="H4" s="43">
-        <f>SUM(E4:G4)</f>
-        <v/>
-      </c>
-      <c r="I4" s="43">
-        <f>AVERAGE(E4:G4)</f>
-        <v/>
-      </c>
-      <c r="J4" s="6">
-        <f>RANK(I4,$I$3:$I$12,0)</f>
-        <v/>
-      </c>
-      <c r="K4" s="29">
-        <f>IF(I4&gt;=60,"及格","不及格")</f>
+      <c r="G4" s="43" t="n">
+        <v>91</v>
+      </c>
+      <c r="H4" s="41" t="n">
+        <v>82</v>
+      </c>
+      <c r="I4" s="41" t="n">
+        <v>83</v>
+      </c>
+      <c r="J4" s="42">
+        <f>SUM(G4:I4)</f>
+        <v/>
+      </c>
+      <c r="K4" s="42">
+        <f>AVERAGE(G4:I4)</f>
+        <v/>
+      </c>
+      <c r="L4" s="6">
+        <f>RANK(K4,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M4" s="29">
+        <f>IF(K4&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="28" t="inlineStr">
         <is>
-          <t>0126007</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>毛容容</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>34347</v>
+          <t>0126003</t>
+        </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>工程造价</t>
-        </is>
-      </c>
-      <c r="E5" s="42" t="n">
-        <v>82</v>
-      </c>
-      <c r="F5" s="42" t="n">
-        <v>83</v>
-      </c>
-      <c r="G5" s="42" t="n">
-        <v>81</v>
-      </c>
-      <c r="H5" s="43">
-        <f>SUM(E5:G5)</f>
-        <v/>
-      </c>
-      <c r="I5" s="43">
-        <f>AVERAGE(E5:G5)</f>
-        <v/>
-      </c>
-      <c r="J5" s="6">
-        <f>RANK(I5,$I$3:$I$12,0)</f>
-        <v/>
-      </c>
-      <c r="K5" s="29">
-        <f>IF(I5&gt;=60,"及格","不及格")</f>
+          <t>王老伍</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>34127</v>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>生态环境</t>
+        </is>
+      </c>
+      <c r="G5" s="41" t="n">
+        <v>74</v>
+      </c>
+      <c r="H5" s="41" t="n">
+        <v>86</v>
+      </c>
+      <c r="I5" s="41" t="n">
+        <v>77</v>
+      </c>
+      <c r="J5" s="42">
+        <f>SUM(G5:I5)</f>
+        <v/>
+      </c>
+      <c r="K5" s="42">
+        <f>AVERAGE(G5:I5)</f>
+        <v/>
+      </c>
+      <c r="L5" s="6">
+        <f>RANK(K5,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M5" s="29">
+        <f>IF(K5&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="48" customHeight="1">
-      <c r="A6" s="34" t="inlineStr">
-        <is>
-          <t>0126010</t>
-        </is>
-      </c>
-      <c r="B6" s="33" t="inlineStr">
-        <is>
-          <t>韦国陶</t>
-        </is>
-      </c>
-      <c r="C6" s="35" t="n">
-        <v>34250</v>
-      </c>
-      <c r="D6" s="33" t="inlineStr">
-        <is>
-          <t>电子商务</t>
-        </is>
-      </c>
-      <c r="E6" s="44" t="n">
-        <v>81</v>
-      </c>
-      <c r="F6" s="45" t="n">
-        <v>95</v>
-      </c>
-      <c r="G6" s="45" t="n">
+      <c r="A6" s="28" t="inlineStr">
+        <is>
+          <t>0126004</t>
+        </is>
+      </c>
+      <c r="D6" s="12" t="inlineStr">
+        <is>
+          <t>马胜军
+(Porter)</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>34572</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>工程造价</t>
+        </is>
+      </c>
+      <c r="G6" s="41" t="n">
+        <v>80</v>
+      </c>
+      <c r="H6" s="41" t="n">
+        <v>52</v>
+      </c>
+      <c r="I6" s="43" t="n">
         <v>88</v>
       </c>
-      <c r="H6" s="43">
-        <f>SUM(E6:G6)</f>
-        <v/>
-      </c>
-      <c r="I6" s="43">
-        <f>AVERAGE(E6:G6)</f>
-        <v/>
-      </c>
-      <c r="J6" s="6">
-        <f>RANK(I6,$I$3:$I$12,0)</f>
-        <v/>
-      </c>
-      <c r="K6" s="29">
-        <f>IF(I6&gt;=60,"及格","不及格")</f>
+      <c r="J6" s="42">
+        <f>SUM(G6:I6)</f>
+        <v/>
+      </c>
+      <c r="K6" s="42">
+        <f>AVERAGE(G6:I6)</f>
+        <v/>
+      </c>
+      <c r="L6" s="6">
+        <f>RANK(K6,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M6" s="29">
+        <f>IF(K6&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="28" t="inlineStr">
         <is>
-          <t>0126004</t>
-        </is>
-      </c>
-      <c r="B7" s="12" t="inlineStr">
-        <is>
-          <t>马胜军
-(Porter)</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>34572</v>
+          <t>0126005</t>
+        </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>刘洁洋</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>34305</v>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>工程造价</t>
         </is>
       </c>
-      <c r="E7" s="42" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" s="42" t="n">
-        <v>52</v>
-      </c>
       <c r="G7" s="41" t="n">
-        <v>88</v>
-      </c>
-      <c r="H7" s="43">
-        <f>SUM(E7:G7)</f>
-        <v/>
-      </c>
-      <c r="I7" s="43">
-        <f>AVERAGE(E7:G7)</f>
-        <v/>
-      </c>
-      <c r="J7" s="6">
-        <f>RANK(I7,$I$3:$I$12,0)</f>
-        <v/>
-      </c>
-      <c r="K7" s="29">
-        <f>IF(I7&gt;=60,"及格","不及格")</f>
+        <v>78</v>
+      </c>
+      <c r="H7" s="41" t="n">
+        <v>68</v>
+      </c>
+      <c r="I7" s="41" t="n">
+        <v>86</v>
+      </c>
+      <c r="J7" s="42">
+        <f>SUM(G7:I7)</f>
+        <v/>
+      </c>
+      <c r="K7" s="42">
+        <f>AVERAGE(G7:I7)</f>
+        <v/>
+      </c>
+      <c r="L7" s="6">
+        <f>RANK(K7,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M7" s="29">
+        <f>IF(K7&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="28" t="inlineStr">
         <is>
-          <t>0126005</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>刘洁洋</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>34305</v>
+          <t>0126006</t>
+        </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>唐小东</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>34289</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>工程造价</t>
         </is>
       </c>
-      <c r="E8" s="42" t="n">
-        <v>78</v>
-      </c>
-      <c r="F8" s="42" t="n">
-        <v>68</v>
-      </c>
-      <c r="G8" s="42" t="n">
-        <v>86</v>
-      </c>
-      <c r="H8" s="43">
-        <f>SUM(E8:G8)</f>
-        <v/>
-      </c>
-      <c r="I8" s="43">
-        <f>AVERAGE(E8:G8)</f>
-        <v/>
-      </c>
-      <c r="J8" s="6">
-        <f>RANK(I8,$I$3:$I$12,0)</f>
-        <v/>
-      </c>
-      <c r="K8" s="29">
-        <f>IF(I8&gt;=60,"及格","不及格")</f>
+      <c r="G8" s="41" t="n">
+        <v>67</v>
+      </c>
+      <c r="H8" s="41" t="n">
+        <v>65</v>
+      </c>
+      <c r="I8" s="41" t="n">
+        <v>44</v>
+      </c>
+      <c r="J8" s="42">
+        <f>SUM(G8:I8)</f>
+        <v/>
+      </c>
+      <c r="K8" s="42">
+        <f>AVERAGE(G8:I8)</f>
+        <v/>
+      </c>
+      <c r="L8" s="6">
+        <f>RANK(K8,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M8" s="29">
+        <f>IF(K8&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="28" t="inlineStr">
         <is>
-          <t>0126003</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>王老伍</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>34127</v>
+          <t>0126007</t>
+        </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>生态环境</t>
-        </is>
-      </c>
-      <c r="E9" s="42" t="n">
-        <v>74</v>
-      </c>
-      <c r="F9" s="42" t="n">
-        <v>86</v>
-      </c>
-      <c r="G9" s="42" t="n">
-        <v>77</v>
-      </c>
-      <c r="H9" s="43">
-        <f>SUM(E9:G9)</f>
-        <v/>
-      </c>
-      <c r="I9" s="43">
-        <f>AVERAGE(E9:G9)</f>
-        <v/>
-      </c>
-      <c r="J9" s="6">
-        <f>RANK(I9,$I$3:$I$12,0)</f>
-        <v/>
-      </c>
-      <c r="K9" s="29">
-        <f>IF(I9&gt;=60,"及格","不及格")</f>
+          <t>毛容容</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>34347</v>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>工程造价</t>
+        </is>
+      </c>
+      <c r="G9" s="41" t="n">
+        <v>82</v>
+      </c>
+      <c r="H9" s="41" t="n">
+        <v>83</v>
+      </c>
+      <c r="I9" s="41" t="n">
+        <v>81</v>
+      </c>
+      <c r="J9" s="42">
+        <f>SUM(G9:I9)</f>
+        <v/>
+      </c>
+      <c r="K9" s="42">
+        <f>AVERAGE(G9:I9)</f>
+        <v/>
+      </c>
+      <c r="L9" s="6">
+        <f>RANK(K9,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M9" s="29">
+        <f>IF(K9&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="28" t="inlineStr">
         <is>
-          <t>0126009</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>陈思敏</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>34460</v>
+          <t>0126008</t>
+        </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>张珊珊</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>34372</v>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>电子商务</t>
         </is>
       </c>
-      <c r="E10" s="42" t="n">
-        <v>69</v>
-      </c>
-      <c r="F10" s="42" t="n">
-        <v>87</v>
-      </c>
-      <c r="G10" s="42" t="n">
-        <v>85</v>
-      </c>
-      <c r="H10" s="43">
-        <f>SUM(E10:G10)</f>
-        <v/>
-      </c>
-      <c r="I10" s="43">
-        <f>AVERAGE(E10:G10)</f>
-        <v/>
-      </c>
-      <c r="J10" s="6">
-        <f>RANK(I10,$I$3:$I$12,0)</f>
-        <v/>
-      </c>
-      <c r="K10" s="29">
-        <f>IF(I10&gt;=60,"及格","不及格")</f>
+      <c r="G10" s="41" t="n">
+        <v>56</v>
+      </c>
+      <c r="H10" s="41" t="n">
+        <v>42</v>
+      </c>
+      <c r="I10" s="41" t="n">
+        <v>66</v>
+      </c>
+      <c r="J10" s="42">
+        <f>SUM(G10:I10)</f>
+        <v/>
+      </c>
+      <c r="K10" s="42">
+        <f>AVERAGE(G10:I10)</f>
+        <v/>
+      </c>
+      <c r="L10" s="6">
+        <f>RANK(K10,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M10" s="29">
+        <f>IF(K10&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="28" t="inlineStr">
         <is>
-          <t>0126006</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>唐小东</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>34289</v>
+          <t>0126009</t>
+        </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>工程造价</t>
-        </is>
-      </c>
-      <c r="E11" s="42" t="n">
-        <v>67</v>
-      </c>
-      <c r="F11" s="42" t="n">
-        <v>65</v>
-      </c>
-      <c r="G11" s="42" t="n">
-        <v>44</v>
-      </c>
-      <c r="H11" s="43">
-        <f>SUM(E11:G11)</f>
-        <v/>
-      </c>
-      <c r="I11" s="43">
-        <f>AVERAGE(E11:G11)</f>
-        <v/>
-      </c>
-      <c r="J11" s="6">
-        <f>RANK(I11,$I$3:$I$12,0)</f>
-        <v/>
-      </c>
-      <c r="K11" s="29">
-        <f>IF(I11&gt;=60,"及格","不及格")</f>
+          <t>陈思敏</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>34460</v>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>电子商务</t>
+        </is>
+      </c>
+      <c r="G11" s="41" t="n">
+        <v>69</v>
+      </c>
+      <c r="H11" s="41" t="n">
+        <v>87</v>
+      </c>
+      <c r="I11" s="41" t="n">
+        <v>85</v>
+      </c>
+      <c r="J11" s="42">
+        <f>SUM(G11:I11)</f>
+        <v/>
+      </c>
+      <c r="K11" s="42">
+        <f>AVERAGE(G11:I11)</f>
+        <v/>
+      </c>
+      <c r="L11" s="6">
+        <f>RANK(K11,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M11" s="29">
+        <f>IF(K11&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="28" t="inlineStr">
-        <is>
-          <t>0126008</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>张珊珊</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>34372</v>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="A12" s="34" t="inlineStr">
+        <is>
+          <t>0126010</t>
+        </is>
+      </c>
+      <c r="D12" s="33" t="inlineStr">
+        <is>
+          <t>韦国陶</t>
+        </is>
+      </c>
+      <c r="E12" s="35" t="n">
+        <v>34250</v>
+      </c>
+      <c r="F12" s="33" t="inlineStr">
         <is>
           <t>电子商务</t>
         </is>
       </c>
-      <c r="E12" s="42" t="n">
-        <v>56</v>
-      </c>
-      <c r="F12" s="42" t="n">
-        <v>42</v>
-      </c>
-      <c r="G12" s="42" t="n">
-        <v>66</v>
-      </c>
-      <c r="H12" s="46">
-        <f>SUM(E12:G12)</f>
-        <v/>
-      </c>
-      <c r="I12" s="46">
-        <f>AVERAGE(E12:G12)</f>
-        <v/>
-      </c>
-      <c r="J12" s="38">
-        <f>RANK(I12,$I$3:$I$12,0)</f>
-        <v/>
-      </c>
-      <c r="K12" s="39">
-        <f>IF(I12&gt;=60,"及格","不及格")</f>
+      <c r="G12" s="44" t="n">
+        <v>81</v>
+      </c>
+      <c r="H12" s="45" t="n">
+        <v>95</v>
+      </c>
+      <c r="I12" s="45" t="n">
+        <v>88</v>
+      </c>
+      <c r="J12" s="46">
+        <f>SUM(G12:I12)</f>
+        <v/>
+      </c>
+      <c r="K12" s="46">
+        <f>AVERAGE(G12:I12)</f>
+        <v/>
+      </c>
+      <c r="L12" s="38">
+        <f>RANK(K12,$K$3:$K$12,0)</f>
+        <v/>
+      </c>
+      <c r="M12" s="39">
+        <f>IF(K12&gt;=60,"及格","不及格")</f>
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="n"/>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
       <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -1809,7 +1819,9 @@
       <c r="H13" s="2" t="n"/>
       <c r="I13" s="2" t="n"/>
       <c r="J13" s="2" t="n"/>
-      <c r="K13" s="9" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="9" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="47" t="inlineStr">
@@ -1819,32 +1831,34 @@
       </c>
       <c r="B14" s="48" t="n"/>
       <c r="C14" s="48" t="n"/>
-      <c r="D14" s="49" t="n"/>
-      <c r="E14" s="43">
+      <c r="D14" s="48" t="n"/>
+      <c r="E14" s="48" t="n"/>
+      <c r="F14" s="49" t="n"/>
+      <c r="G14" s="42">
         <f>MAX(计算机成绩)</f>
         <v/>
       </c>
-      <c r="F14" s="43">
-        <f>MAX(F3:F12)</f>
-        <v/>
-      </c>
-      <c r="G14" s="43">
-        <f>MAX(G3:G12)</f>
-        <v/>
-      </c>
-      <c r="H14" s="50">
-        <f>SUM(H3:H12)</f>
-        <v/>
-      </c>
-      <c r="I14" s="50">
-        <f>SUM(I3:I12)</f>
-        <v/>
-      </c>
-      <c r="J14" s="13">
-        <f>ATAN2(H8,I12)</f>
-        <v/>
-      </c>
-      <c r="K14" s="9" t="n"/>
+      <c r="H14" s="42">
+        <f>MAX(H3:H12)</f>
+        <v/>
+      </c>
+      <c r="I14" s="42">
+        <f>MAX(I3:I12)</f>
+        <v/>
+      </c>
+      <c r="J14" s="50">
+        <f>SUM(J3:J12)</f>
+        <v/>
+      </c>
+      <c r="K14" s="50">
+        <f>SUM(K3:K12)</f>
+        <v/>
+      </c>
+      <c r="L14" s="13">
+        <f>ATAN2(J8,K12)</f>
+        <v/>
+      </c>
+      <c r="M14" s="9" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="47" t="inlineStr">
@@ -1854,23 +1868,25 @@
       </c>
       <c r="B15" s="48" t="n"/>
       <c r="C15" s="48" t="n"/>
-      <c r="D15" s="49" t="n"/>
-      <c r="E15" s="43">
+      <c r="D15" s="48" t="n"/>
+      <c r="E15" s="48" t="n"/>
+      <c r="F15" s="49" t="n"/>
+      <c r="G15" s="42">
         <f>MIN(计算机成绩)</f>
         <v/>
       </c>
-      <c r="F15" s="43">
-        <f>MIN(F3:F12)</f>
-        <v/>
-      </c>
-      <c r="G15" s="43">
-        <f>MIN(G3:G12)</f>
-        <v/>
-      </c>
-      <c r="H15" s="51" t="n"/>
-      <c r="I15" s="51" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="9" t="n"/>
+      <c r="H15" s="42">
+        <f>MIN(H3:H12)</f>
+        <v/>
+      </c>
+      <c r="I15" s="42">
+        <f>MIN(I3:I12)</f>
+        <v/>
+      </c>
+      <c r="J15" s="51" t="n"/>
+      <c r="K15" s="51" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="9" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="47" t="inlineStr">
@@ -1880,23 +1896,25 @@
       </c>
       <c r="B16" s="48" t="n"/>
       <c r="C16" s="48" t="n"/>
-      <c r="D16" s="49" t="n"/>
-      <c r="E16" s="2">
-        <f>COUNT(E3:E12)</f>
-        <v/>
-      </c>
-      <c r="F16" s="2">
-        <f>COUNT(F3:F12)</f>
-        <v/>
-      </c>
+      <c r="D16" s="48" t="n"/>
+      <c r="E16" s="48" t="n"/>
+      <c r="F16" s="49" t="n"/>
       <c r="G16" s="2">
         <f>COUNT(G3:G12)</f>
         <v/>
       </c>
-      <c r="H16" s="51" t="n"/>
-      <c r="I16" s="51" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="9" t="n"/>
+      <c r="H16" s="2">
+        <f>COUNT(H3:H12)</f>
+        <v/>
+      </c>
+      <c r="I16" s="2">
+        <f>COUNT(I3:I12)</f>
+        <v/>
+      </c>
+      <c r="J16" s="51" t="n"/>
+      <c r="K16" s="51" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="9" t="n"/>
     </row>
     <row r="17" ht="14.5" customHeight="1" thickBot="1">
       <c r="A17" s="52" t="inlineStr">
@@ -1906,34 +1924,36 @@
       </c>
       <c r="B17" s="53" t="n"/>
       <c r="C17" s="53" t="n"/>
-      <c r="D17" s="54" t="n"/>
-      <c r="E17" s="10">
+      <c r="D17" s="53" t="n"/>
+      <c r="E17" s="53" t="n"/>
+      <c r="F17" s="54" t="n"/>
+      <c r="G17" s="10">
         <f>COUNTIF(计算机成绩,"&gt;=60")</f>
         <v/>
       </c>
-      <c r="F17" s="10">
-        <f>COUNTIF(F3:F12,"&gt;=60")</f>
-        <v/>
-      </c>
-      <c r="G17" s="10">
-        <f>COUNTIF(G3:G12,"&gt;=60")</f>
-        <v/>
-      </c>
-      <c r="H17" s="55" t="n"/>
-      <c r="I17" s="55" t="n"/>
-      <c r="J17" s="10" t="n"/>
-      <c r="K17" s="11" t="n"/>
+      <c r="H17" s="10">
+        <f>COUNTIF(H3:H12,"&gt;=60")</f>
+        <v/>
+      </c>
+      <c r="I17" s="10">
+        <f>COUNTIF(I3:I12,"&gt;=60")</f>
+        <v/>
+      </c>
+      <c r="J17" s="55" t="n"/>
+      <c r="K17" s="55" t="n"/>
+      <c r="L17" s="10" t="n"/>
+      <c r="M17" s="11" t="n"/>
     </row>
     <row r="18" ht="14.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="A15:F15"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:G12">
     <cfRule type="cellIs" priority="1" operator="lessThan" dxfId="15" stopIfTrue="1">
@@ -1953,7 +1973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B7:J11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:H10"/>
@@ -1964,6 +1984,11 @@
     <col width="11.36328125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6" ht="14.5" customHeight="1" thickBot="1"/>
     <row r="7" ht="14.5" customHeight="1" thickTop="1">
       <c r="B7" s="56" t="inlineStr">
@@ -2009,15 +2034,12 @@
       <c r="C8" s="48" t="n"/>
       <c r="D8" s="48" t="n"/>
       <c r="E8" s="49" t="n"/>
-      <c r="F8" s="43">
+      <c r="F8" s="42">
         <f>MAX(计算机成绩)</f>
         <v/>
       </c>
-      <c r="G8" s="43">
-        <f>MAX(原始数据!F3:F12)</f>
-        <v/>
-      </c>
-      <c r="H8" s="43">
+      <c r="G8" s="42" t="n"/>
+      <c r="H8" s="42">
         <f>MAX(原始数据!G3:G12)</f>
         <v/>
       </c>
@@ -2039,15 +2061,12 @@
       <c r="C9" s="48" t="n"/>
       <c r="D9" s="48" t="n"/>
       <c r="E9" s="49" t="n"/>
-      <c r="F9" s="43">
+      <c r="F9" s="42">
         <f>MIN(计算机成绩)</f>
         <v/>
       </c>
-      <c r="G9" s="43">
-        <f>MIN(原始数据!F3:F12)</f>
-        <v/>
-      </c>
-      <c r="H9" s="43">
+      <c r="G9" s="42" t="n"/>
+      <c r="H9" s="42">
         <f>MIN(原始数据!G3:G12)</f>
         <v/>
       </c>
@@ -2067,10 +2086,7 @@
         <f>COUNT(计算机成绩)</f>
         <v/>
       </c>
-      <c r="G10" s="2">
-        <f>COUNT(原始数据!F3:F12)</f>
-        <v/>
-      </c>
+      <c r="G10" s="2" t="n"/>
       <c r="H10" s="2">
         <f>COUNT(原始数据!G3:G12)</f>
         <v/>
@@ -2091,10 +2107,7 @@
         <f>COUNTIF(计算机成绩,"&gt;=60")</f>
         <v/>
       </c>
-      <c r="G11" s="10">
-        <f>COUNTIF((原始数据!F3:F12),"&gt;=60")</f>
-        <v/>
-      </c>
+      <c r="G11" s="10" t="n"/>
       <c r="H11" s="10">
         <f>COUNTIF((原始数据!G3:G12),"&gt;=60")</f>
         <v/>
